--- a/document/계약_실적관련/실적_계약_마스터Data.xlsx
+++ b/document/계약_실적관련/실적_계약_마스터Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\스타에셋프로젝트\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\계약_실적관련\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B6F3F7-2034-488D-B166-9D0672A06EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EE33F1-A972-40A2-A638-C15671538C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-390" windowWidth="29040" windowHeight="15840" xr2:uid="{6E61D337-59DF-4563-91F2-E364A0CF378D}"/>
+    <workbookView xWindow="25080" yWindow="-390" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6E61D337-59DF-4563-91F2-E364A0CF378D}"/>
   </bookViews>
   <sheets>
     <sheet name="영업수수료율" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="75">
   <si>
     <t>지급TYPEID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +293,42 @@
   </si>
   <si>
     <t>RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSULTING_CLASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨설팅 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -339,15 +375,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF97287B-B4D3-47E1-9331-8FC386C310C9}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -2313,7 +2346,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>33</v>
       </c>
       <c r="B16" t="s">
@@ -2324,7 +2357,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
@@ -2335,7 +2368,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
       <c r="B18" t="s">
@@ -2463,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40A25BF-D5F0-4553-9407-F4C77B8DA370}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2660,7 +2693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
@@ -2670,7 +2703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -2684,7 +2717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
@@ -2694,20 +2727,59 @@
         <v>16</v>
       </c>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/계약_실적관련/실적_계약_마스터Data.xlsx
+++ b/document/계약_실적관련/실적_계약_마스터Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\계약_실적관련\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EE33F1-A972-40A2-A638-C15671538C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B665792A-306F-4833-A2DE-D532C5407CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-390" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6E61D337-59DF-4563-91F2-E364A0CF378D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{6E61D337-59DF-4563-91F2-E364A0CF378D}"/>
   </bookViews>
   <sheets>
     <sheet name="영업수수료율" sheetId="1" r:id="rId1"/>
     <sheet name="실행수수료율" sheetId="2" r:id="rId2"/>
     <sheet name="CODE MASTER" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="101">
   <si>
     <t>지급TYPEID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +330,110 @@
   </si>
   <si>
     <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEETING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNSELING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEND_EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK_ETC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTRA_WORK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEMINA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화상담</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 외 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 내부 일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOOP_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO_LOOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVERYDAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVERYWEEK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVERYMONTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVERYYEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매년</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2496,10 +2601,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40A25BF-D5F0-4553-9407-F4C77B8DA370}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2764,8 +2869,130 @@
         <v>73</v>
       </c>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="A2:A5"/>
@@ -2784,4 +3011,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC22B3E-60A2-41DC-AA3D-FB3A6AA72ABE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>